--- a/continent.xlsx
+++ b/continent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\GitHub\exiobase-ISTerre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\GitHub\health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C02CE1-CFEA-4B06-8285-2D01CD81136A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7EA44-5536-4527-B35B-2218D22B47A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>EXIO3</t>
   </si>
@@ -37,9 +37,6 @@
     <t>AU</t>
   </si>
   <si>
-    <t>Oceania</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>BR</t>
   </si>
   <si>
-    <t>America</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>CN</t>
   </si>
   <si>
-    <t>Asia</t>
-  </si>
-  <si>
     <t>CY</t>
   </si>
   <si>
@@ -190,7 +181,28 @@
     <t>Africa</t>
   </si>
   <si>
-    <t>RoW regions</t>
+    <t>India</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>USA and Canada</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Rest of Asia</t>
+  </si>
+  <si>
+    <t>Japan and Korea</t>
   </si>
 </sst>
 </file>
@@ -555,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,12 +594,12 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -595,7 +607,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -603,23 +615,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -627,23 +639,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -651,7 +663,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -659,7 +671,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -667,7 +679,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -675,7 +687,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -683,7 +695,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -691,7 +703,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -699,7 +711,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -707,7 +719,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -715,7 +727,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -723,7 +735,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -731,15 +743,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -747,15 +759,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -763,23 +775,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -787,7 +799,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -795,7 +807,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -803,7 +815,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -811,15 +823,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -827,7 +839,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -835,7 +847,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -843,7 +855,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -851,7 +863,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -859,7 +871,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -867,7 +879,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -875,7 +887,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -883,7 +895,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -891,39 +903,39 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -931,34 +943,34 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/continent.xlsx
+++ b/continent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrieba\Documents\GitHub\health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7EA44-5536-4527-B35B-2218D22B47A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18CA030-4149-4B25-A862-0F7F5E683F1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>EXIO3</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Japan and Korea</t>
+  </si>
+  <si>
+    <t>Russia</t>
   </si>
 </sst>
 </file>
@@ -221,6 +224,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -568,12 +572,12 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -597,7 +601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -605,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -613,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -621,7 +625,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -629,7 +633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -637,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -645,7 +649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -653,7 +657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -661,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -669,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -677,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -685,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -693,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -701,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -709,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -717,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -725,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -733,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -741,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -749,7 +753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -757,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -765,7 +769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -773,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -781,7 +785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -789,7 +793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -797,7 +801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -805,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -813,7 +817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -821,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -829,7 +833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -837,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -845,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -853,7 +857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -861,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -869,15 +873,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -885,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -893,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -901,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -909,7 +913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -917,7 +921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -925,7 +929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -933,7 +937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -941,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -949,7 +953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -957,7 +961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -965,7 +969,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
